--- a/IRU/PPC/Patentes Provinciales 2021 Cuota 10de12.xlsx
+++ b/IRU/PPC/Patentes Provinciales 2021 Cuota 10de12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FileServer\VIAR\MADELEN\IMPUESTOS\PATENTES\PATENTES PROVINCIALES\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Robot Viar\IRU\PPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C5B24-B005-4EEB-AC31-8F3F09BE2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,18 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -311,11 +320,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +347,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,13 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,80 +463,86 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -926,119 +950,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="9.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="29" customWidth="1"/>
+    <col min="7" max="10" width="9.42578125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="29" customWidth="1"/>
+    <col min="12" max="14" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="20" customWidth="1"/>
     <col min="16" max="16" width="16.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="11"/>
+    <col min="18" max="18" width="16.42578125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="15">
         <v>2021</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>24506.41</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="18">
         <v>2402.6</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="18">
         <v>2402.6</v>
       </c>
       <c r="L2" s="19">
@@ -1061,42 +1084,42 @@
         <f>+P2-L2</f>
         <v>-3.5599999999999454</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="5">
         <v>2400</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="17">
         <v>9494.57</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="17">
         <v>930.8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="17">
         <v>930.8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>930.8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="17">
         <v>930.8</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="17">
         <v>930.8</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="17">
         <v>930.8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="17">
         <v>930.8</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="17">
         <v>930.8</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="17">
         <v>930.8</v>
       </c>
       <c r="L3" s="21">
@@ -1119,42 +1142,42 @@
         <f t="shared" ref="Q3:Q66" si="0">+P3-L3</f>
         <v>-0.9699999999999136</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="6">
         <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="17">
         <v>9494.57</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="17">
         <v>930.8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="17">
         <v>930.8</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>930.8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <v>930.8</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17">
         <v>930.8</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="17">
         <v>930.8</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <v>930.8</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="17">
         <v>930.8</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="17">
         <v>930.8</v>
       </c>
       <c r="L4" s="21">
@@ -1177,42 +1200,42 @@
         <f t="shared" si="0"/>
         <v>-0.9699999999999136</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="6">
         <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="17">
         <v>7695.18</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="17">
         <v>754.4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="17">
         <v>754.4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>754.4</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <v>754.4</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="17">
         <v>754.4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="17">
         <v>754.4</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="17">
         <v>754.4</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="17">
         <v>754.4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="17">
         <v>754.4</v>
       </c>
       <c r="L5" s="21">
@@ -1235,42 +1258,42 @@
         <f t="shared" si="0"/>
         <v>-0.25999999999999091</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="6">
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="17">
         <v>31097.79</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="18">
         <v>3048.8</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="18">
         <v>3048.8</v>
       </c>
       <c r="L6" s="19">
@@ -1293,42 +1316,42 @@
         <f t="shared" si="0"/>
         <v>-9.5300000000002001</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="6">
         <v>3040</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="17">
         <v>31097.79</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="18">
         <v>3048.8</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="18">
         <v>3048.8</v>
       </c>
       <c r="L7" s="19">
@@ -1351,42 +1374,42 @@
         <f t="shared" si="0"/>
         <v>-9.5300000000002001</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="6">
         <v>3040</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>31097.79</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="18">
         <v>3048.8</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="18">
         <v>3048.8</v>
       </c>
       <c r="L8" s="19">
@@ -1409,42 +1432,42 @@
         <f t="shared" si="0"/>
         <v>-9.5300000000002001</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="6">
         <v>3040</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="17">
         <v>31097.79</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="18">
         <v>3048.8</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="18">
         <v>3048.8</v>
       </c>
       <c r="L9" s="19">
@@ -1467,24 +1490,24 @@
         <f t="shared" si="0"/>
         <v>-9.5300000000002001</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="6">
         <v>3040</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -1494,22 +1517,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -1519,40 +1542,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>33430.129999999997</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="17">
         <v>3277.5</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="17">
         <v>3277.5</v>
       </c>
       <c r="L12" s="21">
@@ -1575,42 +1598,42 @@
         <f t="shared" si="0"/>
         <v>-7.5399999999999636</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="6">
         <v>3270</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="17">
         <v>33430.129999999997</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="17">
         <v>3277.5</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="17">
         <v>3277.5</v>
       </c>
       <c r="L13" s="21">
@@ -1633,42 +1656,42 @@
         <f t="shared" si="0"/>
         <v>-7.5399999999999636</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="6">
         <v>3270</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>33430.129999999997</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="17">
         <v>3277.5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="17">
         <v>3277.5</v>
       </c>
       <c r="L14" s="21">
@@ -1691,24 +1714,24 @@
         <f t="shared" si="0"/>
         <v>-7.5399999999999636</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="6">
         <v>3270</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -1718,22 +1741,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -1743,22 +1766,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -1768,32 +1791,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
         <v>2061.8000000000002</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="17">
         <v>2061.8000000000002</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="17">
         <v>2061.8000000000002</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="17">
         <v>2061.8000000000002</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="17">
         <v>2061.8000000000002</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="17">
         <v>2061.8000000000002</v>
       </c>
       <c r="L18" s="21">
@@ -1813,24 +1836,24 @@
         <f t="shared" si="0"/>
         <v>-1.4400000000000546</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="6">
         <v>2060</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -1840,22 +1863,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -1865,40 +1888,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
         <v>0</v>
       </c>
       <c r="L21" s="21">
@@ -1915,40 +1938,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
         <v>0</v>
       </c>
       <c r="L22" s="21">
@@ -1965,40 +1988,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0</v>
-      </c>
-      <c r="K23" s="10">
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
         <v>0</v>
       </c>
       <c r="L23" s="21">
@@ -2015,40 +2038,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
         <v>0</v>
       </c>
       <c r="L24" s="21">
@@ -2065,40 +2088,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10">
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
         <v>0</v>
       </c>
       <c r="L25" s="21">
@@ -2115,40 +2138,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
         <v>0</v>
       </c>
       <c r="L26" s="21">
@@ -2165,40 +2188,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="9"/>
+      <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
         <v>0</v>
       </c>
       <c r="L27" s="21">
@@ -2215,40 +2238,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
+      <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
         <v>0</v>
       </c>
       <c r="L28" s="21">
@@ -2265,40 +2288,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
         <v>0</v>
       </c>
       <c r="L29" s="21">
@@ -2315,40 +2338,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="17">
         <v>15011.71</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="17">
         <v>1471.7</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="17">
         <v>1471.7</v>
       </c>
       <c r="L30" s="21">
@@ -2371,42 +2394,42 @@
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="6">
         <v>1470</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="17">
         <v>15011.71</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="17">
         <v>1471.7</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="17">
         <v>1471.7</v>
       </c>
       <c r="L31" s="21">
@@ -2429,42 +2452,42 @@
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="6">
         <v>1470</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10">
+      <c r="B32" s="17">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
         <v>0</v>
       </c>
       <c r="L32" s="21">
@@ -2481,40 +2504,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
         <v>0</v>
       </c>
       <c r="L33" s="21">
@@ -2531,40 +2554,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
         <v>0</v>
       </c>
       <c r="L34" s="21">
@@ -2581,40 +2604,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10">
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
         <v>0</v>
       </c>
       <c r="L35" s="21">
@@ -2631,40 +2654,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
+      <c r="B36" s="17">
+        <v>0</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
         <v>0</v>
       </c>
       <c r="L36" s="21">
@@ -2681,40 +2704,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10">
+      <c r="B37" s="17">
+        <v>0</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
         <v>0</v>
       </c>
       <c r="L37" s="21">
@@ -2731,24 +2754,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R37" s="9"/>
+      <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
@@ -2757,24 +2780,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="8"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
@@ -2783,24 +2806,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="8"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
@@ -2809,40 +2832,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="8"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="17">
         <v>18002.400000000001</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="17">
         <v>1764.9</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="17">
         <v>1764.9</v>
       </c>
       <c r="L41" s="21">
@@ -2865,42 +2888,42 @@
         <f t="shared" si="0"/>
         <v>-7.0700000000001637</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="6">
         <v>1760</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
+      <c r="B42" s="17">
+        <v>0</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
         <v>0</v>
       </c>
       <c r="L42" s="21">
@@ -2917,24 +2940,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -2943,40 +2966,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R43" s="9"/>
+      <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="10">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
+      <c r="B44" s="17">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
         <v>0</v>
       </c>
       <c r="L44" s="21">
@@ -2993,40 +3016,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R44" s="9"/>
+      <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="17">
         <v>22677.47</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="17">
         <v>2223.3000000000002</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="17">
         <v>2223.3000000000002</v>
       </c>
       <c r="L45" s="21">
@@ -3049,26 +3072,26 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="6">
         <v>2220</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
@@ -3077,40 +3100,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R46" s="9"/>
+      <c r="R46" s="8"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>15076.19</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="17">
         <v>1478.1</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="17">
         <v>1478.1</v>
       </c>
       <c r="L47" s="21">
@@ -3133,26 +3156,26 @@
         <f t="shared" si="0"/>
         <v>-2.25</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="6">
         <v>1470</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
@@ -3161,24 +3184,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="8"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -3187,24 +3210,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
@@ -3213,40 +3236,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R50" s="9"/>
+      <c r="R50" s="8"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="10">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0</v>
-      </c>
-      <c r="K51" s="10">
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
         <v>0</v>
       </c>
       <c r="L51" s="21">
@@ -3263,24 +3286,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R51" s="9"/>
+      <c r="R51" s="8"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
@@ -3289,40 +3312,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="17">
         <v>15076.19</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="17">
         <v>1478.1</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="17">
         <v>1478.1</v>
       </c>
       <c r="L53" s="21">
@@ -3345,42 +3368,42 @@
         <f t="shared" si="0"/>
         <v>-2.25</v>
       </c>
-      <c r="R53" s="27">
+      <c r="R53" s="6">
         <v>1470</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="17">
         <v>15076.19</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="17">
         <v>1478.1</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="17">
         <v>1478.1</v>
       </c>
       <c r="L54" s="21">
@@ -3403,42 +3426,42 @@
         <f t="shared" si="0"/>
         <v>-2.25</v>
       </c>
-      <c r="R54" s="27">
+      <c r="R54" s="6">
         <v>1470</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="17">
         <v>20991.01</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="17">
         <v>2057.9</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="17">
         <v>2057.9</v>
       </c>
       <c r="L55" s="21">
@@ -3457,42 +3480,42 @@
         <f t="shared" si="0"/>
         <v>-1.6500000000000909</v>
       </c>
-      <c r="R55" s="27">
+      <c r="R55" s="6">
         <v>2050</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="17">
         <v>2884.31</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="17">
         <v>282.8</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="17">
         <v>282.8</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="17">
         <v>282.8</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="17">
         <v>282.8</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="17">
         <v>282.8</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="17">
         <v>282.8</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="17">
         <v>282.8</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="17">
         <v>282.8</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="17">
         <v>282.8</v>
       </c>
       <c r="L56" s="21">
@@ -3511,42 +3534,42 @@
         <f t="shared" si="0"/>
         <v>-5.1399999999999864</v>
       </c>
-      <c r="R56" s="29">
+      <c r="R56" s="5">
         <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="17">
         <v>2884.31</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="17">
         <v>282.8</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="17">
         <v>282.8</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="17">
         <v>282.8</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="17">
         <v>282.8</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="17">
         <v>282.8</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="17">
         <v>282.8</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="17">
         <v>282.8</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="17">
         <v>282.8</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="17">
         <v>282.8</v>
       </c>
       <c r="L57" s="21">
@@ -3565,42 +3588,42 @@
         <f t="shared" si="0"/>
         <v>-5.1399999999999864</v>
       </c>
-      <c r="R57" s="29">
+      <c r="R57" s="5">
         <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="17">
         <v>18668.03</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="17">
         <v>1830.2</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="17">
         <v>1830.2</v>
       </c>
       <c r="L58" s="21">
@@ -3619,42 +3642,42 @@
         <f t="shared" si="0"/>
         <v>-3.6700000000000728</v>
       </c>
-      <c r="R58" s="29">
+      <c r="R58" s="5">
         <v>1830</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="17">
         <v>6860.67</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="17">
         <v>672.6</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="17">
         <v>672.6</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="17">
         <v>672.6</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="17">
         <v>672.6</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="17">
         <v>672.6</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="17">
         <v>672.6</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="17">
         <v>672.6</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="17">
         <v>672.6</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="17">
         <v>672.6</v>
       </c>
       <c r="L59" s="21">
@@ -3677,42 +3700,42 @@
         <f t="shared" si="0"/>
         <v>-4.5900000000000318</v>
       </c>
-      <c r="R59" s="29">
+      <c r="R59" s="5">
         <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="17">
         <v>6860.67</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="17">
         <v>672.6</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="17">
         <v>672.6</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="17">
         <v>672.6</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="17">
         <v>672.6</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="17">
         <v>672.6</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="17">
         <v>672.6</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="17">
         <v>672.6</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="17">
         <v>672.6</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="17">
         <v>672.6</v>
       </c>
       <c r="L60" s="21">
@@ -3731,42 +3754,42 @@
         <f t="shared" si="0"/>
         <v>-4.5900000000000318</v>
       </c>
-      <c r="R60" s="29">
+      <c r="R60" s="5">
         <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="17">
         <v>6860.67</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="17">
         <v>672.6</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="17">
         <v>672.6</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="17">
         <v>672.6</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="17">
         <v>672.6</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="17">
         <v>672.6</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="17">
         <v>672.6</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="17">
         <v>672.6</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="17">
         <v>672.6</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="17">
         <v>672.6</v>
       </c>
       <c r="L61" s="21">
@@ -3785,42 +3808,42 @@
         <f t="shared" si="0"/>
         <v>-4.5900000000000318</v>
       </c>
-      <c r="R61" s="29">
+      <c r="R61" s="5">
         <v>670</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="17">
         <v>19364.36</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="17">
         <v>1898.5</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="17">
         <v>1898.5</v>
       </c>
       <c r="L62" s="21">
@@ -3839,42 +3862,42 @@
         <f t="shared" si="0"/>
         <v>-0.10999999999989996</v>
       </c>
-      <c r="R62" s="29">
+      <c r="R62" s="5">
         <v>1890</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="17">
         <v>6860.67</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="17">
         <v>672.6</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="17">
         <v>672.6</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="17">
         <v>672.6</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="17">
         <v>672.6</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="17">
         <v>672.6</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="17">
         <v>672.6</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="17">
         <v>672.6</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="17">
         <v>672.6</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="17">
         <v>672.6</v>
       </c>
       <c r="L63" s="21">
@@ -3897,42 +3920,42 @@
         <f t="shared" si="0"/>
         <v>-4.5900000000000318</v>
       </c>
-      <c r="R63" s="29">
+      <c r="R63" s="5">
         <v>670</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="17">
         <v>2100.12</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="17">
         <v>205.9</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="17">
         <v>205.9</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="17">
         <v>205.9</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="17">
         <v>205.9</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="17">
         <v>205.9</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="17">
         <v>205.9</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="17">
         <v>205.9</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="17">
         <v>205.9</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="17">
         <v>205.9</v>
       </c>
       <c r="L64" s="21">
@@ -3951,42 +3974,42 @@
         <f t="shared" si="0"/>
         <v>-9.1700000000000159</v>
       </c>
-      <c r="R64" s="29">
+      <c r="R64" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="17">
         <v>27210.57</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="17">
         <v>2667.7</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="17">
         <v>2667.7</v>
       </c>
       <c r="L65" s="21">
@@ -4005,42 +4028,42 @@
         <f t="shared" si="0"/>
         <v>-9.5899999999996908</v>
       </c>
-      <c r="R65" s="29">
+      <c r="R65" s="5">
         <v>2660</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="17">
         <v>12071.72</v>
       </c>
-      <c r="C66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="D66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="E66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="F66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="G66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="H66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="I66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="J66" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="K66" s="10">
+      <c r="C66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="E66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="F66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="G66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="H66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="I66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="J66" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="K66" s="17">
         <v>1183.5</v>
       </c>
       <c r="L66" s="21">
@@ -4059,42 +4082,42 @@
         <f t="shared" si="0"/>
         <v>-7.7100000000000364</v>
       </c>
-      <c r="R66" s="29">
+      <c r="R66" s="5">
         <v>1180</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="17">
         <v>12071.72</v>
       </c>
-      <c r="C67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="D67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="E67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="F67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="G67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="H67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="I67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="J67" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="K67" s="10">
+      <c r="C67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="E67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="G67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="I67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="J67" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="K67" s="17">
         <v>1183.5</v>
       </c>
       <c r="L67" s="21">
@@ -4113,42 +4136,42 @@
         <f t="shared" ref="Q67:Q74" si="1">+P67-L67</f>
         <v>-7.7100000000000364</v>
       </c>
-      <c r="R67" s="29">
+      <c r="R67" s="5">
         <v>1180</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="17">
         <v>20130.36</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="17">
         <v>1973.6</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="17">
         <v>1973.6</v>
       </c>
       <c r="L68" s="21">
@@ -4167,42 +4190,42 @@
         <f t="shared" si="1"/>
         <v>-6.1599999999998545</v>
       </c>
-      <c r="R68" s="29">
+      <c r="R68" s="5">
         <v>1970</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="17">
         <v>12071.72</v>
       </c>
-      <c r="C69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="D69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="E69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="F69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="G69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="H69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="I69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="J69" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="K69" s="10">
+      <c r="C69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="D69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="E69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="F69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="G69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="H69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="I69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="J69" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="K69" s="17">
         <v>1183.5</v>
       </c>
       <c r="L69" s="21">
@@ -4225,42 +4248,42 @@
         <f t="shared" si="1"/>
         <v>-7.7100000000000364</v>
       </c>
-      <c r="R69" s="29">
+      <c r="R69" s="5">
         <v>1180</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="17">
         <v>20130.36</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="17">
         <v>1973.6</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="17">
         <v>1973.6</v>
       </c>
       <c r="L70" s="21">
@@ -4279,42 +4302,42 @@
         <f t="shared" si="1"/>
         <v>-6.1599999999998545</v>
       </c>
-      <c r="R70" s="29">
+      <c r="R70" s="5">
         <v>1970</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="17">
         <v>8386.35</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="17">
         <v>822.2</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="17">
         <v>822.2</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="17">
         <v>822.2</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="17">
         <v>822.2</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="17">
         <v>822.2</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="17">
         <v>822.2</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="17">
         <v>822.2</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="17">
         <v>822.2</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="17">
         <v>822.2</v>
       </c>
       <c r="L71" s="21">
@@ -4333,42 +4356,42 @@
         <f t="shared" si="1"/>
         <v>-6.7300000000000182</v>
       </c>
-      <c r="R71" s="29">
+      <c r="R71" s="5">
         <v>820</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="17">
         <v>12071.72</v>
       </c>
-      <c r="C72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="E72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="G72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="H72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="I72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="J72" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="K72" s="10">
+      <c r="C72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="D72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="E72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="F72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="H72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="J72" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="K72" s="17">
         <v>1183.5</v>
       </c>
       <c r="L72" s="21">
@@ -4387,42 +4410,42 @@
         <f t="shared" si="1"/>
         <v>-7.7100000000000364</v>
       </c>
-      <c r="R72" s="29">
+      <c r="R72" s="5">
         <v>1180</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="17">
         <v>12071.72</v>
       </c>
-      <c r="C73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="D73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="E73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="G73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="H73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="I73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="J73" s="10">
-        <v>1183.5</v>
-      </c>
-      <c r="K73" s="10">
+      <c r="C73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="D73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="E73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="F73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="G73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="H73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1183.5</v>
+      </c>
+      <c r="K73" s="17">
         <v>1183.5</v>
       </c>
       <c r="L73" s="21">
@@ -4441,42 +4464,42 @@
         <f t="shared" si="1"/>
         <v>-7.7100000000000364</v>
       </c>
-      <c r="R73" s="29">
+      <c r="R73" s="5">
         <v>1180</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="17">
         <v>16324.15</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="17">
         <v>1600.4</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="17">
         <v>1600.4</v>
       </c>
       <c r="L74" s="21">
@@ -4499,65 +4522,65 @@
         <f t="shared" si="1"/>
         <v>-5.7599999999999909</v>
       </c>
-      <c r="R74" s="29">
+      <c r="R74" s="5">
         <v>1600</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13">
+      <c r="A75" s="30"/>
+      <c r="B75" s="22">
         <f>SUM(B2:B74)</f>
         <v>638679.34999999986</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="22">
         <f>SUM(C2:C74)</f>
         <v>62615.69999999999</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="22">
         <f t="shared" ref="D75:N75" si="2">SUM(D2:D74)</f>
         <v>62615.69999999999</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="22">
         <f t="shared" si="2"/>
         <v>62615.69999999999</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="22">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="23">
         <f>SUM(L2:L74)</f>
         <v>64677.499999999993</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="23">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="23">
         <f t="shared" si="2"/>
         <v>64677.499999999993</v>
       </c>
-      <c r="P75" s="23">
+      <c r="P75" s="24">
         <f>SUM(P2:P74)</f>
         <v>64471.550000000025</v>
       </c>
@@ -4565,80 +4588,116 @@
         <f>L75-P75</f>
         <v>205.94999999996799</v>
       </c>
-      <c r="R75" s="23">
+      <c r="R75" s="9">
         <f>SUM(R2:R74)</f>
         <v>64500</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="31">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C76" s="35">
         <f>+C75+D75+E75+F75+G75+H75+I75+J75+K75+L75+M75+N75</f>
         <v>769944.6</v>
       </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="33"/>
-    </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="15"/>
-      <c r="C77" s="34">
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="27"/>
+      <c r="C77" s="38">
         <f>+C76/B75-1</f>
         <v>0.20552605935983381</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C78" s="28"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="R80" s="26">
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+    </row>
+    <row r="80" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="26"/>
+      <c r="E80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="33">
         <f>+R2+R3+R4+R5+R6+R7+R8+R9+R12+R13+R14+R18+R30+R31+R41+R45+R47+R53+R54+R55</f>
         <v>42420</v>
       </c>
-      <c r="S80" s="11" t="s">
+      <c r="S80" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="R81" s="30">
+    <row r="81" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="26"/>
+      <c r="F81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="34">
         <f>+R56+R57+R58+R59+R60+R61+R62+R63+R64+R65+R66+R67+R69+R68+R70+R71+R72+R73+R74</f>
         <v>22080</v>
       </c>
-      <c r="S81" s="11" t="s">
+      <c r="S81" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F83" s="16"/>
-      <c r="J83" s="16"/>
+    <row r="82" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="26"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="32"/>
+    </row>
+    <row r="83" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="26"/>
+      <c r="F83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
